--- a/belanja sepeda.xlsx
+++ b/belanja sepeda.xlsx
@@ -10,14 +10,14 @@
     <sheet name="belanja" sheetId="1" r:id="rId1"/>
   </sheets>
   <definedNames>
-    <definedName name="total">belanja!$D$1:$D$8</definedName>
+    <definedName name="total">belanja!$D$1:$D$5</definedName>
   </definedNames>
   <calcPr calcId="144525"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="21">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="20">
   <si>
     <t>barang</t>
   </si>
@@ -40,46 +40,43 @@
     <t>target</t>
   </si>
   <si>
-    <t>12 mini</t>
+    <t>16 mini</t>
   </si>
   <si>
     <t>sisa</t>
   </si>
   <si>
-    <t>bd 16</t>
-  </si>
-  <si>
-    <t>bd 18</t>
-  </si>
-  <si>
-    <t>bl 12</t>
-  </si>
-  <si>
-    <t>bl 16 x 175</t>
-  </si>
-  <si>
-    <t>bl 20 x 175</t>
-  </si>
-  <si>
-    <t>bl 20 x 2125</t>
-  </si>
-  <si>
-    <t>bw bagus</t>
-  </si>
-  <si>
-    <t>bw pink</t>
+    <t>20 bmx</t>
+  </si>
+  <si>
+    <t>24 mini (selain biru)</t>
+  </si>
+  <si>
+    <t>gir</t>
+  </si>
+  <si>
+    <t>pelor depan (per gulung)</t>
   </si>
   <si>
     <t>r3 besar</t>
   </si>
   <si>
-    <t>r3 vespa</t>
-  </si>
-  <si>
-    <t>rem komplit 20</t>
-  </si>
-  <si>
-    <t>rem komplit kecil</t>
+    <t>rantai gigi</t>
+  </si>
+  <si>
+    <t>sadel bmx</t>
+  </si>
+  <si>
+    <t>sadel mini</t>
+  </si>
+  <si>
+    <t>terompet</t>
+  </si>
+  <si>
+    <t>tiang sadel</t>
+  </si>
+  <si>
+    <t>vespa musik (atau sinchan)</t>
   </si>
 </sst>
 </file>
@@ -139,24 +136,62 @@
     </font>
     <font>
       <sz val="11"/>
+      <color theme="0"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
       <color theme="1"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="0"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
+      <b/>
+      <sz val="15"/>
+      <color theme="3"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -175,46 +210,32 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <b/>
-      <sz val="15"/>
-      <color theme="3"/>
-      <name val="Calibri"/>
-      <charset val="134"/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
       <b/>
       <sz val="11"/>
       <color rgb="FFFA7D00"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="3"/>
-      <name val="Calibri"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -228,47 +249,23 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF0000FF"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -289,37 +286,169 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="8" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="5" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="4"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -331,139 +460,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -492,11 +489,17 @@
       <diagonal/>
     </border>
     <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
+      <left style="thin">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF3F3F3F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -506,6 +509,15 @@
       <top/>
       <bottom style="medium">
         <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
       </bottom>
       <diagonal/>
     </border>
@@ -525,26 +537,11 @@
       <diagonal/>
     </border>
     <border>
-      <left style="thin">
-        <color rgb="FF7F7F7F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF7F7F7F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF7F7F7F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF7F7F7F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
       <left/>
       <right/>
       <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
       </bottom>
       <diagonal/>
     </border>
@@ -561,156 +558,156 @@
     </border>
     <border>
       <left style="thin">
-        <color rgb="FF3F3F3F"/>
+        <color rgb="FF7F7F7F"/>
       </left>
       <right style="thin">
-        <color rgb="FF3F3F3F"/>
+        <color rgb="FF7F7F7F"/>
       </right>
       <top style="thin">
-        <color rgb="FF3F3F3F"/>
+        <color rgb="FF7F7F7F"/>
       </top>
       <bottom style="thin">
-        <color rgb="FF3F3F3F"/>
+        <color rgb="FF7F7F7F"/>
       </bottom>
       <diagonal/>
     </border>
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="6" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="11" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="5" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="5" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="11" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="176" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="6" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="8" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="7" borderId="4" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="10" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="8" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="11" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="15" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="11" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="4" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="12" borderId="5" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="20" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="4" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="42" fontId="5" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="5" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="11" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="177" fontId="5" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -731,8 +728,8 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="47" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="47" applyNumberFormat="1" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="177" fontId="0" fillId="0" borderId="0" xfId="47"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
   </cellXfs>
   <cellStyles count="49">
@@ -1052,15 +1049,14 @@
   <dimension ref="A1:J30"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A1" sqref="A1"/>
+      <selection activeCell="A3" sqref="A3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="12.75"/>
   <cols>
-    <col min="1" max="1" width="17.8571428571429" customWidth="1"/>
+    <col min="1" max="1" width="25.2857142857143" customWidth="1"/>
     <col min="2" max="2" width="7.85714285714286" customWidth="1"/>
-    <col min="3" max="3" width="11.7142857142857" customWidth="1"/>
-    <col min="4" max="4" width="13.5714285714286" customWidth="1"/>
+    <col min="3" max="4" width="13.5714285714286" customWidth="1"/>
     <col min="6" max="6" width="7.71428571428571" customWidth="1"/>
     <col min="7" max="7" width="13.5714285714286" customWidth="1"/>
     <col min="10" max="10" width="15.2857142857143"/>
@@ -1084,7 +1080,7 @@
       </c>
       <c r="G1" s="2">
         <f>SUM(D2:D23)</f>
-        <v>5821000</v>
+        <v>6610000</v>
       </c>
       <c r="J1" s="2"/>
     </row>
@@ -1096,17 +1092,17 @@
         <v>3</v>
       </c>
       <c r="C2" s="4">
-        <v>480000</v>
+        <v>470000</v>
       </c>
       <c r="D2" s="4">
         <f>B2*C2</f>
-        <v>1440000</v>
+        <v>1410000</v>
       </c>
       <c r="F2" s="5" t="s">
         <v>6</v>
       </c>
       <c r="G2" s="6">
-        <v>6000000</v>
+        <v>6700000</v>
       </c>
     </row>
     <row r="3" spans="1:7">
@@ -1117,18 +1113,18 @@
         <v>2</v>
       </c>
       <c r="C3" s="4">
-        <v>420000</v>
+        <v>470000</v>
       </c>
       <c r="D3" s="4">
         <f>B3*C3</f>
-        <v>840000</v>
+        <v>940000</v>
       </c>
       <c r="F3" t="s">
         <v>8</v>
       </c>
       <c r="G3" s="2">
         <f>G2-G1</f>
-        <v>179000</v>
+        <v>90000</v>
       </c>
     </row>
     <row r="4" spans="1:4">
@@ -1136,91 +1132,91 @@
         <v>9</v>
       </c>
       <c r="B4" s="7">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="C4" s="4">
-        <v>12000</v>
+        <v>730000</v>
       </c>
       <c r="D4" s="4">
         <f>B4*C4</f>
-        <v>36000</v>
+        <v>1460000</v>
       </c>
     </row>
     <row r="5" spans="1:7">
       <c r="A5" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="B5" s="7">
-        <v>4</v>
+      <c r="B5" s="3">
+        <v>1</v>
       </c>
       <c r="C5" s="4">
-        <v>13000</v>
+        <v>1100000</v>
       </c>
       <c r="D5" s="4">
         <f>B5*C5</f>
-        <v>52000</v>
+        <v>1100000</v>
       </c>
       <c r="F5" s="9"/>
       <c r="G5" s="2"/>
     </row>
     <row r="6" spans="1:4">
-      <c r="A6" s="3" t="s">
+      <c r="A6" t="s">
         <v>11</v>
       </c>
-      <c r="B6" s="3">
-        <v>2</v>
-      </c>
-      <c r="C6" s="4">
-        <v>24000</v>
-      </c>
-      <c r="D6" s="4">
+      <c r="B6" s="10">
+        <v>3</v>
+      </c>
+      <c r="C6" s="2">
+        <v>25000</v>
+      </c>
+      <c r="D6" s="2">
         <f>B6*C6</f>
-        <v>48000</v>
+        <v>75000</v>
       </c>
     </row>
     <row r="7" spans="1:4">
-      <c r="A7" s="8" t="s">
+      <c r="A7" t="s">
         <v>12</v>
       </c>
-      <c r="B7" s="7">
-        <v>2</v>
-      </c>
-      <c r="C7" s="4">
-        <v>28000</v>
-      </c>
-      <c r="D7" s="4">
+      <c r="B7" s="10">
+        <v>1</v>
+      </c>
+      <c r="C7" s="2">
+        <v>10000</v>
+      </c>
+      <c r="D7" s="2">
         <f>B7*C7</f>
-        <v>56000</v>
+        <v>10000</v>
       </c>
     </row>
     <row r="8" spans="1:4">
       <c r="A8" s="3" t="s">
         <v>13</v>
       </c>
-      <c r="B8" s="3">
-        <v>3</v>
+      <c r="B8" s="7">
+        <v>2</v>
       </c>
       <c r="C8" s="4">
-        <v>35000</v>
+        <v>350000</v>
       </c>
       <c r="D8" s="4">
         <f>B8*C8</f>
-        <v>105000</v>
+        <v>700000</v>
       </c>
     </row>
     <row r="9" spans="1:4">
-      <c r="A9" s="3" t="s">
+      <c r="A9" t="s">
         <v>14</v>
       </c>
-      <c r="B9" s="3">
+      <c r="B9">
         <v>2</v>
       </c>
-      <c r="C9" s="4">
-        <v>37000</v>
-      </c>
-      <c r="D9" s="4">
+      <c r="C9" s="11">
+        <v>45000</v>
+      </c>
+      <c r="D9" s="11">
         <f>B9*C9</f>
-        <v>74000</v>
+        <v>90000</v>
       </c>
     </row>
     <row r="10" spans="1:4">
@@ -1228,129 +1224,109 @@
         <v>15</v>
       </c>
       <c r="B10" s="7">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="C10" s="4">
-        <v>270000</v>
+        <v>30000</v>
       </c>
       <c r="D10" s="4">
         <f>B10*C10</f>
+        <v>90000</v>
+      </c>
+    </row>
+    <row r="11" spans="1:4">
+      <c r="A11" s="12" t="s">
+        <v>16</v>
+      </c>
+      <c r="B11" s="10">
+        <v>3</v>
+      </c>
+      <c r="C11" s="2">
+        <v>30000</v>
+      </c>
+      <c r="D11" s="2">
+        <f>B11*C11</f>
+        <v>90000</v>
+      </c>
+    </row>
+    <row r="12" spans="1:4">
+      <c r="A12" t="s">
+        <v>17</v>
+      </c>
+      <c r="B12" s="10">
+        <v>3</v>
+      </c>
+      <c r="C12" s="2">
+        <v>25000</v>
+      </c>
+      <c r="D12" s="2">
+        <f>B12*C12</f>
+        <v>75000</v>
+      </c>
+    </row>
+    <row r="13" spans="1:4">
+      <c r="A13" s="3" t="s">
+        <v>18</v>
+      </c>
+      <c r="B13" s="7">
+        <v>2</v>
+      </c>
+      <c r="C13" s="4">
+        <v>15000</v>
+      </c>
+      <c r="D13" s="4">
+        <f>B13*C13</f>
+        <v>30000</v>
+      </c>
+    </row>
+    <row r="14" spans="1:4">
+      <c r="A14" s="8" t="s">
+        <v>19</v>
+      </c>
+      <c r="B14" s="7">
+        <v>2</v>
+      </c>
+      <c r="C14" s="4">
+        <v>270000</v>
+      </c>
+      <c r="D14" s="4">
+        <f>B14*C14</f>
         <v>540000</v>
       </c>
-    </row>
-    <row r="11" spans="1:4">
-      <c r="A11" s="10" t="s">
-        <v>16</v>
-      </c>
-      <c r="B11" s="7">
-        <v>4</v>
-      </c>
-      <c r="C11" s="4">
-        <v>205000</v>
-      </c>
-      <c r="D11" s="4">
-        <f>B11*C11</f>
-        <v>820000</v>
-      </c>
-    </row>
-    <row r="12" spans="1:4">
-      <c r="A12" s="3" t="s">
-        <v>17</v>
-      </c>
-      <c r="B12" s="7">
-        <v>3</v>
-      </c>
-      <c r="C12" s="4">
-        <v>400000</v>
-      </c>
-      <c r="D12" s="4">
-        <f>B12*C12</f>
-        <v>1200000</v>
-      </c>
-    </row>
-    <row r="13" spans="1:4">
-      <c r="A13" t="s">
-        <v>18</v>
-      </c>
-      <c r="B13" s="11">
-        <v>2</v>
-      </c>
-      <c r="C13" s="2">
-        <v>230000</v>
-      </c>
-      <c r="D13" s="2">
-        <f>B13*C13</f>
-        <v>460000</v>
-      </c>
-    </row>
-    <row r="14" spans="1:4">
-      <c r="A14" s="12" t="s">
-        <v>19</v>
-      </c>
-      <c r="B14" s="11">
-        <v>2</v>
-      </c>
-      <c r="C14" s="2">
-        <v>50000</v>
-      </c>
-      <c r="D14" s="2">
-        <f>B14*C14</f>
-        <v>100000</v>
-      </c>
-    </row>
-    <row r="15" spans="1:4">
-      <c r="A15" t="s">
-        <v>20</v>
-      </c>
-      <c r="B15" s="11">
-        <v>1</v>
-      </c>
-      <c r="C15" s="2">
-        <v>50000</v>
-      </c>
-      <c r="D15" s="2">
-        <f>B15*C15</f>
-        <v>50000</v>
-      </c>
-    </row>
-    <row r="16" spans="2:4">
-      <c r="B16" s="11"/>
-      <c r="C16" s="2"/>
-      <c r="D16" s="2"/>
     </row>
     <row r="17" spans="1:4">
       <c r="A17" s="12"/>
-      <c r="B17" s="11"/>
+      <c r="B17" s="10"/>
       <c r="C17" s="2"/>
       <c r="D17" s="2"/>
     </row>
     <row r="18" spans="2:4">
-      <c r="B18" s="11"/>
+      <c r="B18" s="10"/>
       <c r="C18" s="2"/>
       <c r="D18" s="2"/>
     </row>
     <row r="19" spans="2:4">
-      <c r="B19" s="11"/>
+      <c r="B19" s="10"/>
       <c r="C19" s="2"/>
       <c r="D19" s="2"/>
     </row>
     <row r="20" spans="2:4">
-      <c r="B20" s="11"/>
+      <c r="B20" s="10"/>
       <c r="C20" s="2"/>
       <c r="D20" s="2"/>
     </row>
     <row r="21" spans="2:4">
-      <c r="B21" s="11"/>
+      <c r="B21" s="10"/>
       <c r="C21" s="2"/>
       <c r="D21" s="2"/>
     </row>
     <row r="22" spans="2:4">
-      <c r="B22" s="11"/>
+      <c r="B22" s="10"/>
       <c r="C22" s="2"/>
       <c r="D22" s="2"/>
     </row>
     <row r="23" spans="2:4">
-      <c r="B23" s="11"/>
+      <c r="B23" s="10"/>
       <c r="C23" s="2"/>
       <c r="D23" s="2"/>
     </row>
@@ -1383,7 +1359,7 @@
       <c r="D30" s="2"/>
     </row>
   </sheetData>
-  <sortState ref="A2:D15">
+  <sortState ref="A2:D14">
     <sortCondition ref="A2"/>
   </sortState>
   <pageMargins left="0.699305555555556" right="0.699305555555556" top="0.75" bottom="0.75" header="0.299305555555556" footer="0.299305555555556"/>
